--- a/NumberRule.xlsx
+++ b/NumberRule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Faras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C220273B-FCE5-4E2B-809F-AB4B5AB7B857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D3FA2-CC7E-4F2A-A32E-C54E5C11BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,8 +366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="L451" sqref="L451"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,13 +402,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -416,16 +416,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>A3+1</f>
-        <v>3</v>
+        <f>A3-1</f>
+        <v>12</v>
       </c>
       <c r="B4">
-        <f>B3+1</f>
-        <v>3</v>
+        <f>B3-1</f>
+        <v>12</v>
       </c>
       <c r="C4">
-        <f>C3+1</f>
-        <v>3</v>
+        <f>C3-1</f>
+        <v>12</v>
       </c>
       <c r="D4">
         <f>D3+1</f>
@@ -434,16 +434,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A13" si="0">A4+1</f>
-        <v>4</v>
+        <f t="shared" ref="A5:A14" si="0">A4-1</f>
+        <v>11</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B14" si="1">B4+1</f>
-        <v>4</v>
+        <f t="shared" ref="B5:B14" si="1">B4-1</f>
+        <v>11</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C14" si="2">C4+1</f>
-        <v>4</v>
+        <f t="shared" ref="C5:C14" si="2">C4-1</f>
+        <v>11</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D68" si="3">D4+1</f>
@@ -453,15 +453,15 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
@@ -471,15 +471,15 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
@@ -489,15 +489,15 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
@@ -507,15 +507,15 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
@@ -525,15 +525,15 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
@@ -543,15 +543,15 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
@@ -561,15 +561,15 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
@@ -579,15 +579,15 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
@@ -596,16 +596,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>A13+1</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <f t="shared" si="3"/>
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <f t="shared" si="3"/>
@@ -683,7 +683,7 @@
       </c>
       <c r="C19">
         <f>C18-1</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <f t="shared" si="3"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C26" si="6">C19-1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <f t="shared" si="3"/>
@@ -719,7 +719,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <f t="shared" si="3"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <f t="shared" si="3"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <f t="shared" si="3"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
@@ -809,7 +809,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>

--- a/NumberRule.xlsx
+++ b/NumberRule.xlsx
@@ -1,36 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Faras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D3FA2-CC7E-4F2A-A32E-C54E5C11BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1887F85C-2EEB-408E-BEFC-E371EF78A5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Combinations" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -52,8 +37,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +46,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -78,15 +363,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -118,7 +592,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -130,7 +604,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -177,6 +651,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -212,6 +703,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,11 +871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D456"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="G459" sqref="G459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,6 +919,7 @@
         <v>13</v>
       </c>
       <c r="D3">
+        <f>D2+1</f>
         <v>2</v>
       </c>
     </row>
@@ -428,31 +937,31 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <f>D3+1</f>
+        <f t="shared" ref="D4:D67" si="0">D3+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" ref="A5:A14" si="0">A4-1</f>
+        <f t="shared" ref="A5:C14" si="1">A4-1</f>
         <v>11</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B14" si="1">B4-1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C14" si="2">C4-1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D68" si="3">D4+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B6">
@@ -460,17 +969,17 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B7">
@@ -478,17 +987,17 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B8">
@@ -496,17 +1005,17 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -514,17 +1023,17 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10">
@@ -532,17 +1041,17 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B11">
@@ -550,17 +1059,17 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B12">
@@ -568,17 +1077,17 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B13">
@@ -586,17 +1095,17 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="B14">
@@ -604,11 +1113,11 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -623,7 +1132,7 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -638,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -653,7 +1162,7 @@
         <v>13</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -668,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -686,79 +1195,79 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" ref="A20:A26" si="4">A19-1</f>
+        <f t="shared" ref="A20:C26" si="2">A19-1</f>
         <v>8</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:B26" si="5">B19-1</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C26" si="6">C19-1</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -768,51 +1277,51 @@
         <v>4</v>
       </c>
       <c r="B24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
@@ -827,7 +1336,7 @@
         <v>13</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -843,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
@@ -855,11 +1364,11 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:C38" si="7">C28-1</f>
+        <f t="shared" ref="C29:C38" si="3">C28-1</f>
         <v>11</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -871,11 +1380,11 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -887,11 +1396,11 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -903,11 +1412,11 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -919,11 +1428,11 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -935,11 +1444,11 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
@@ -951,11 +1460,11 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -967,11 +1476,11 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
@@ -983,11 +1492,11 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -999,11 +1508,11 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -1018,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -1033,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
@@ -1049,13 +1558,13 @@
         <v>13</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" ref="A42:A49" si="8">A41-1</f>
+        <f t="shared" ref="A42:A49" si="4">A41-1</f>
         <v>10</v>
       </c>
       <c r="B42">
@@ -1065,13 +1574,13 @@
         <v>13</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B43">
@@ -1081,13 +1590,13 @@
         <v>13</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B44">
@@ -1097,13 +1606,13 @@
         <v>13</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B45">
@@ -1113,13 +1622,13 @@
         <v>13</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B46">
@@ -1129,13 +1638,13 @@
         <v>13</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B47">
@@ -1145,13 +1654,13 @@
         <v>13</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B48">
@@ -1161,13 +1670,13 @@
         <v>13</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B49">
@@ -1177,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -1193,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
     </row>
@@ -1208,22 +1717,22 @@
         <v>12</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>12</v>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -1238,7 +1747,7 @@
         <v>12</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
@@ -1254,13 +1763,13 @@
         <v>12</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" ref="A55:A62" si="9">A54-1</f>
+        <f t="shared" ref="A55:A62" si="5">A54-1</f>
         <v>9</v>
       </c>
       <c r="B55">
@@ -1270,13 +1779,13 @@
         <v>12</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B56">
@@ -1286,13 +1795,13 @@
         <v>12</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B57">
@@ -1302,13 +1811,13 @@
         <v>12</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B58">
@@ -1318,13 +1827,13 @@
         <v>12</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B59">
@@ -1334,13 +1843,13 @@
         <v>12</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B60">
@@ -1350,13 +1859,13 @@
         <v>12</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="B61">
@@ -1366,13 +1875,13 @@
         <v>12</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B62">
@@ -1382,7 +1891,7 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -1397,37 +1906,37 @@
         <v>11</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64">
         <v>11</v>
       </c>
       <c r="C64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>11</v>
       </c>
       <c r="C65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -1442,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
     </row>
@@ -1458,13 +1967,13 @@
         <v>11</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" ref="A68:A74" si="10">A67-1</f>
+        <f t="shared" ref="A68:A74" si="6">A67-1</f>
         <v>8</v>
       </c>
       <c r="B68">
@@ -1474,13 +1983,13 @@
         <v>11</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D68:D131" si="7">D67+1</f>
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B69">
@@ -1490,13 +1999,13 @@
         <v>11</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D132" si="11">D68+1</f>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B70">
@@ -1506,13 +2015,13 @@
         <v>11</v>
       </c>
       <c r="D70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B71">
@@ -1522,13 +2031,13 @@
         <v>11</v>
       </c>
       <c r="D71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B72">
@@ -1538,13 +2047,13 @@
         <v>11</v>
       </c>
       <c r="D72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="B73">
@@ -1554,13 +2063,13 @@
         <v>11</v>
       </c>
       <c r="D73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="B74">
@@ -1570,7 +2079,7 @@
         <v>11</v>
       </c>
       <c r="D74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>73</v>
       </c>
     </row>
@@ -1585,52 +2094,52 @@
         <v>10</v>
       </c>
       <c r="D75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
       <c r="C76">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77">
         <v>10</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78">
         <v>10</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
     </row>
@@ -1645,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
     </row>
@@ -1661,13 +2170,13 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" ref="A81:A85" si="12">A80-1</f>
+        <f t="shared" ref="A81:A85" si="8">A80-1</f>
         <v>7</v>
       </c>
       <c r="B81">
@@ -1677,13 +2186,13 @@
         <v>10</v>
       </c>
       <c r="D81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B82">
@@ -1693,13 +2202,13 @@
         <v>10</v>
       </c>
       <c r="D82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B83">
@@ -1709,13 +2218,13 @@
         <v>10</v>
       </c>
       <c r="D83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B84">
@@ -1725,13 +2234,13 @@
         <v>10</v>
       </c>
       <c r="D84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="B85">
@@ -1741,7 +2250,7 @@
         <v>10</v>
       </c>
       <c r="D85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>84</v>
       </c>
     </row>
@@ -1757,7 +2266,7 @@
         <v>10</v>
       </c>
       <c r="D86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
     </row>
@@ -1772,67 +2281,67 @@
         <v>9</v>
       </c>
       <c r="D87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>9</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>9</v>
       </c>
       <c r="C89">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B90">
         <v>9</v>
       </c>
       <c r="C90">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
     </row>
@@ -1847,7 +2356,7 @@
         <v>9</v>
       </c>
       <c r="D92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
     </row>
@@ -1863,13 +2372,13 @@
         <v>9</v>
       </c>
       <c r="D93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" ref="A94:A97" si="13">A93-1</f>
+        <f t="shared" ref="A94:A97" si="9">A93-1</f>
         <v>6</v>
       </c>
       <c r="B94">
@@ -1879,13 +2388,13 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B95">
@@ -1895,13 +2404,13 @@
         <v>9</v>
       </c>
       <c r="D95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B96">
@@ -1911,13 +2420,13 @@
         <v>9</v>
       </c>
       <c r="D96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="B97">
@@ -1927,7 +2436,7 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
     </row>
@@ -1943,7 +2452,7 @@
         <v>9</v>
       </c>
       <c r="D98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
     </row>
@@ -1958,82 +2467,82 @@
         <v>8</v>
       </c>
       <c r="D99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B100">
         <v>8</v>
       </c>
       <c r="C100">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>8</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B102">
         <v>8</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B103">
         <v>8</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104">
         <v>8</v>
       </c>
       <c r="C104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
     </row>
@@ -2048,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="D105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
     </row>
@@ -2063,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
     </row>
@@ -2078,7 +2587,7 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>106</v>
       </c>
     </row>
@@ -2093,7 +2602,7 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>107</v>
       </c>
     </row>
@@ -2108,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="D109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>108</v>
       </c>
     </row>
@@ -2123,7 +2632,7 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>109</v>
       </c>
     </row>
@@ -2138,97 +2647,97 @@
         <v>7</v>
       </c>
       <c r="D111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <v>7</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D113">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B114">
         <v>7</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D114">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <v>7</v>
       </c>
       <c r="C115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D115">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>7</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D116">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <v>7</v>
       </c>
       <c r="C117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
     </row>
@@ -2243,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>117</v>
       </c>
     </row>
@@ -2258,7 +2767,7 @@
         <v>7</v>
       </c>
       <c r="D119">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>118</v>
       </c>
     </row>
@@ -2273,7 +2782,7 @@
         <v>7</v>
       </c>
       <c r="D120">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>119</v>
       </c>
     </row>
@@ -2288,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="D121">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
     </row>
@@ -2303,7 +2812,7 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
     </row>
@@ -2318,112 +2827,112 @@
         <v>6</v>
       </c>
       <c r="D123">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B124">
         <v>6</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D124">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B125">
         <v>6</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D125">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D126">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B127">
         <v>6</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B128">
         <v>6</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B129">
         <v>6</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
     </row>
@@ -2438,7 +2947,7 @@
         <v>6</v>
       </c>
       <c r="D131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
     </row>
@@ -2453,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="D132">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="D132:D195" si="10">D131+1</f>
         <v>131</v>
       </c>
     </row>
@@ -2468,7 +2977,7 @@
         <v>6</v>
       </c>
       <c r="D133">
-        <f t="shared" ref="D133:D196" si="14">D132+1</f>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
     </row>
@@ -2483,7 +2992,7 @@
         <v>6</v>
       </c>
       <c r="D134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>133</v>
       </c>
     </row>
@@ -2498,127 +3007,127 @@
         <v>5</v>
       </c>
       <c r="D135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
       <c r="C138">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B140">
         <v>5</v>
       </c>
       <c r="C140">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D140">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D141">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D142">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>142</v>
       </c>
     </row>
@@ -2633,7 +3142,7 @@
         <v>5</v>
       </c>
       <c r="D144">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>143</v>
       </c>
     </row>
@@ -2648,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="D145">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
     </row>
@@ -2663,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
     </row>
@@ -2678,142 +3187,142 @@
         <v>4</v>
       </c>
       <c r="D147">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D148">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D149">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B151">
         <v>4</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D151">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B152">
         <v>4</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D153">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B154">
         <v>4</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D154">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155">
         <v>4</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D155">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B156">
         <v>4</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D156">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>155</v>
       </c>
     </row>
@@ -2828,7 +3337,7 @@
         <v>4</v>
       </c>
       <c r="D157">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
     </row>
@@ -2843,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>157</v>
       </c>
     </row>
@@ -2858,166 +3367,166 @@
         <v>3</v>
       </c>
       <c r="D159">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D160">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f>A160-1</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B161">
         <v>3</v>
       </c>
       <c r="C161">
-        <v>3</v>
+        <f>C160-1</f>
+        <v>12</v>
       </c>
       <c r="D161">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f t="shared" ref="A162:A169" si="15">A161-1</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <f t="shared" ref="C162:C169" si="11">C161-1</f>
+        <v>11</v>
       </c>
       <c r="D162">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="D163">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f t="shared" si="15"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="D164">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f t="shared" si="15"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B165">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="D165">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="D166">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f t="shared" si="15"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B167">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="D167">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f>A167-1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B168">
         <v>3</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <f>C167-1</f>
+        <v>5</v>
       </c>
       <c r="D168">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="D169">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
     </row>
@@ -3032,7 +3541,7 @@
         <v>3</v>
       </c>
       <c r="D170">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>169</v>
       </c>
     </row>
@@ -3047,182 +3556,182 @@
         <v>2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
       <c r="C172">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D172">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f>A172-1</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <f>C172-1</f>
+        <v>12</v>
       </c>
       <c r="D173">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174">
-        <f t="shared" ref="A174:A181" si="16">A173-1</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <f t="shared" ref="C174:C181" si="12">C173-1</f>
+        <v>11</v>
       </c>
       <c r="D174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="D175">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>9</v>
       </c>
       <c r="D176">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>8</v>
       </c>
       <c r="D177">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f>A177-1</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <f>C177-1</f>
+        <v>7</v>
       </c>
       <c r="D178">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f t="shared" si="16"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>6</v>
       </c>
       <c r="D179">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180">
-        <f t="shared" si="16"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>5</v>
       </c>
       <c r="D180">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="D181">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182">
-        <f>A181-1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B182">
         <v>2</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <f>C181-1</f>
+        <v>3</v>
       </c>
       <c r="D182">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
     </row>
@@ -3231,13 +3740,13 @@
         <v>1</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C183">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D183">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>182</v>
       </c>
     </row>
@@ -3246,13 +3755,13 @@
         <v>1</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D184">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
     </row>
@@ -3261,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C185">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D185">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>184</v>
       </c>
     </row>
@@ -3276,13 +3785,13 @@
         <v>1</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C186">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D186">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>185</v>
       </c>
     </row>
@@ -3291,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C187">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D187">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
     </row>
@@ -3306,13 +3815,13 @@
         <v>1</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C188">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D188">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>187</v>
       </c>
     </row>
@@ -3321,13 +3830,13 @@
         <v>1</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D189">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>188</v>
       </c>
     </row>
@@ -3336,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C190">
         <v>11</v>
       </c>
       <c r="D190">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
     </row>
@@ -3351,13 +3860,13 @@
         <v>1</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C191">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D191">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>190</v>
       </c>
     </row>
@@ -3366,13 +3875,13 @@
         <v>1</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C192">
         <v>13</v>
       </c>
       <c r="D192">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>191</v>
       </c>
     </row>
@@ -3381,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D193">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
     </row>
@@ -3396,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C194">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D194">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>193</v>
       </c>
     </row>
@@ -3411,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D195">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>194</v>
       </c>
     </row>
@@ -3426,13 +3935,13 @@
         <v>1</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C196">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D196">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D196:D259" si="13">D195+1</f>
         <v>195</v>
       </c>
     </row>
@@ -3441,13 +3950,13 @@
         <v>1</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C197">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D197">
-        <f t="shared" ref="D197:D260" si="17">D196+1</f>
+        <f t="shared" si="13"/>
         <v>196</v>
       </c>
     </row>
@@ -3456,13 +3965,13 @@
         <v>1</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C198">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D198">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>197</v>
       </c>
     </row>
@@ -3471,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="B199">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C199">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D199">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>198</v>
       </c>
     </row>
@@ -3486,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C200">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>199</v>
       </c>
     </row>
@@ -3501,13 +4010,13 @@
         <v>1</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>200</v>
       </c>
     </row>
@@ -3516,13 +4025,13 @@
         <v>1</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C202">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>201</v>
       </c>
     </row>
@@ -3531,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>202</v>
       </c>
     </row>
@@ -3546,13 +4055,13 @@
         <v>1</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>203</v>
       </c>
     </row>
@@ -3561,13 +4070,13 @@
         <v>1</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>204</v>
       </c>
     </row>
@@ -3576,13 +4085,13 @@
         <v>1</v>
       </c>
       <c r="B206">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>205</v>
       </c>
     </row>
@@ -3591,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="B207">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C207">
         <v>9</v>
       </c>
       <c r="D207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>206</v>
       </c>
     </row>
@@ -3606,13 +4115,13 @@
         <v>1</v>
       </c>
       <c r="B208">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D208">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>207</v>
       </c>
     </row>
@@ -3621,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D209">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>208</v>
       </c>
     </row>
@@ -3636,13 +4145,13 @@
         <v>1</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C210">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D210">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>209</v>
       </c>
     </row>
@@ -3651,13 +4160,13 @@
         <v>1</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C211">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D211">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>210</v>
       </c>
     </row>
@@ -3666,13 +4175,13 @@
         <v>1</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C212">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D212">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>211</v>
       </c>
     </row>
@@ -3681,13 +4190,13 @@
         <v>1</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D213">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>212</v>
       </c>
     </row>
@@ -3696,13 +4205,13 @@
         <v>1</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>213</v>
       </c>
     </row>
@@ -3711,13 +4220,13 @@
         <v>1</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C215">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D215">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>214</v>
       </c>
     </row>
@@ -3726,13 +4235,13 @@
         <v>1</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C216">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D216">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>215</v>
       </c>
     </row>
@@ -3741,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C217">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D217">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>216</v>
       </c>
     </row>
@@ -3756,13 +4265,13 @@
         <v>1</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D218">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>217</v>
       </c>
     </row>
@@ -3771,13 +4280,13 @@
         <v>1</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C219">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D219">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>218</v>
       </c>
     </row>
@@ -3786,13 +4295,13 @@
         <v>1</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C220">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D220">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>219</v>
       </c>
     </row>
@@ -3801,13 +4310,13 @@
         <v>1</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D221">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>220</v>
       </c>
     </row>
@@ -3816,13 +4325,13 @@
         <v>1</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C222">
         <v>9</v>
       </c>
       <c r="D222">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>221</v>
       </c>
     </row>
@@ -3831,13 +4340,13 @@
         <v>1</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D223">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>222</v>
       </c>
     </row>
@@ -3846,13 +4355,13 @@
         <v>1</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D224">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>223</v>
       </c>
     </row>
@@ -3861,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D225">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
     </row>
@@ -3876,13 +4385,13 @@
         <v>1</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D226">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>225</v>
       </c>
     </row>
@@ -3891,13 +4400,13 @@
         <v>1</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D227">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>226</v>
       </c>
     </row>
@@ -3906,13 +4415,13 @@
         <v>1</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D228">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>227</v>
       </c>
     </row>
@@ -3921,13 +4430,13 @@
         <v>1</v>
       </c>
       <c r="B229">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D229">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>228</v>
       </c>
     </row>
@@ -3936,13 +4445,13 @@
         <v>1</v>
       </c>
       <c r="B230">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D230">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>229</v>
       </c>
     </row>
@@ -3951,13 +4460,13 @@
         <v>1</v>
       </c>
       <c r="B231">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C231">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D231">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>230</v>
       </c>
     </row>
@@ -3966,13 +4475,13 @@
         <v>1</v>
       </c>
       <c r="B232">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C232">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D232">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>231</v>
       </c>
     </row>
@@ -3981,13 +4490,13 @@
         <v>1</v>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C233">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D233">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>232</v>
       </c>
     </row>
@@ -3996,13 +4505,13 @@
         <v>1</v>
       </c>
       <c r="B234">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C234">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D234">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>233</v>
       </c>
     </row>
@@ -4011,13 +4520,13 @@
         <v>1</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D235">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>234</v>
       </c>
     </row>
@@ -4026,13 +4535,13 @@
         <v>1</v>
       </c>
       <c r="B236">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C236">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D236">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>235</v>
       </c>
     </row>
@@ -4041,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="B237">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C237">
         <v>13</v>
       </c>
       <c r="D237">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>236</v>
       </c>
     </row>
@@ -4056,13 +4565,13 @@
         <v>1</v>
       </c>
       <c r="B238">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C238">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D238">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>237</v>
       </c>
     </row>
@@ -4071,13 +4580,13 @@
         <v>1</v>
       </c>
       <c r="B239">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C239">
         <v>11</v>
       </c>
       <c r="D239">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>238</v>
       </c>
     </row>
@@ -4086,13 +4595,13 @@
         <v>1</v>
       </c>
       <c r="B240">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C240">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D240">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>239</v>
       </c>
     </row>
@@ -4101,13 +4610,13 @@
         <v>1</v>
       </c>
       <c r="B241">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C241">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D241">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>240</v>
       </c>
     </row>
@@ -4116,13 +4625,13 @@
         <v>1</v>
       </c>
       <c r="B242">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C242">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D242">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>241</v>
       </c>
     </row>
@@ -4131,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="B243">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C243">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D243">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>242</v>
       </c>
     </row>
@@ -4146,13 +4655,13 @@
         <v>1</v>
       </c>
       <c r="B244">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C244">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D244">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>243</v>
       </c>
     </row>
@@ -4161,13 +4670,13 @@
         <v>1</v>
       </c>
       <c r="B245">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C245">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D245">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>244</v>
       </c>
     </row>
@@ -4176,13 +4685,13 @@
         <v>1</v>
       </c>
       <c r="B246">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C246">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D246">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>245</v>
       </c>
     </row>
@@ -4191,13 +4700,13 @@
         <v>10</v>
       </c>
       <c r="B247">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C247">
         <v>13</v>
       </c>
       <c r="D247">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>246</v>
       </c>
     </row>
@@ -4206,13 +4715,13 @@
         <v>10</v>
       </c>
       <c r="B248">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C248">
         <v>13</v>
       </c>
       <c r="D248">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>247</v>
       </c>
     </row>
@@ -4221,13 +4730,13 @@
         <v>9</v>
       </c>
       <c r="B249">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C249">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D249">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>248</v>
       </c>
     </row>
@@ -4236,13 +4745,13 @@
         <v>9</v>
       </c>
       <c r="B250">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C250">
         <v>13</v>
       </c>
       <c r="D250">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>249</v>
       </c>
     </row>
@@ -4257,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="D251">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>250</v>
       </c>
     </row>
@@ -4266,13 +4775,13 @@
         <v>9</v>
       </c>
       <c r="B252">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C252">
         <v>13</v>
       </c>
       <c r="D252">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>251</v>
       </c>
     </row>
@@ -4281,13 +4790,13 @@
         <v>9</v>
       </c>
       <c r="B253">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C253">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>252</v>
       </c>
     </row>
@@ -4296,13 +4805,13 @@
         <v>8</v>
       </c>
       <c r="B254">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C254">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D254">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>253</v>
       </c>
     </row>
@@ -4311,13 +4820,13 @@
         <v>8</v>
       </c>
       <c r="B255">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C255">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D255">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>254</v>
       </c>
     </row>
@@ -4326,13 +4835,13 @@
         <v>8</v>
       </c>
       <c r="B256">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C256">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D256">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>255</v>
       </c>
     </row>
@@ -4344,10 +4853,10 @@
         <v>10</v>
       </c>
       <c r="C257">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D257">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
     </row>
@@ -4362,7 +4871,7 @@
         <v>12</v>
       </c>
       <c r="D258">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>257</v>
       </c>
     </row>
@@ -4374,10 +4883,10 @@
         <v>10</v>
       </c>
       <c r="C259">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D259">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
     </row>
@@ -4386,13 +4895,13 @@
         <v>8</v>
       </c>
       <c r="B260">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C260">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D260">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="D260:D323" si="14">D259+1</f>
         <v>259</v>
       </c>
     </row>
@@ -4401,13 +4910,13 @@
         <v>8</v>
       </c>
       <c r="B261">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C261">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D261">
-        <f t="shared" ref="D261:D324" si="18">D260+1</f>
+        <f t="shared" si="14"/>
         <v>260</v>
       </c>
     </row>
@@ -4416,13 +4925,13 @@
         <v>8</v>
       </c>
       <c r="B262">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C262">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D262">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>261</v>
       </c>
     </row>
@@ -4431,13 +4940,13 @@
         <v>7</v>
       </c>
       <c r="B263">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C263">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D263">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>262</v>
       </c>
     </row>
@@ -4446,13 +4955,13 @@
         <v>7</v>
       </c>
       <c r="B264">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C264">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D264">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>263</v>
       </c>
     </row>
@@ -4461,13 +4970,13 @@
         <v>7</v>
       </c>
       <c r="B265">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C265">
         <v>12</v>
       </c>
       <c r="D265">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>264</v>
       </c>
     </row>
@@ -4476,13 +4985,13 @@
         <v>7</v>
       </c>
       <c r="B266">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C266">
         <v>13</v>
       </c>
       <c r="D266">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>265</v>
       </c>
     </row>
@@ -4491,13 +5000,13 @@
         <v>7</v>
       </c>
       <c r="B267">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C267">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D267">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>266</v>
       </c>
     </row>
@@ -4506,13 +5015,13 @@
         <v>7</v>
       </c>
       <c r="B268">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C268">
         <v>11</v>
       </c>
       <c r="D268">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>267</v>
       </c>
     </row>
@@ -4524,10 +5033,10 @@
         <v>9</v>
       </c>
       <c r="C269">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D269">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>268</v>
       </c>
     </row>
@@ -4539,10 +5048,10 @@
         <v>9</v>
       </c>
       <c r="C270">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D270">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>269</v>
       </c>
     </row>
@@ -4551,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="B271">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C271">
         <v>11</v>
       </c>
       <c r="D271">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>270</v>
       </c>
     </row>
@@ -4566,13 +5075,13 @@
         <v>7</v>
       </c>
       <c r="B272">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C272">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D272">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>271</v>
       </c>
     </row>
@@ -4581,13 +5090,13 @@
         <v>7</v>
       </c>
       <c r="B273">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C273">
         <v>13</v>
       </c>
       <c r="D273">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>272</v>
       </c>
     </row>
@@ -4596,13 +5105,13 @@
         <v>7</v>
       </c>
       <c r="B274">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C274">
         <v>12</v>
       </c>
       <c r="D274">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>273</v>
       </c>
     </row>
@@ -4611,13 +5120,13 @@
         <v>7</v>
       </c>
       <c r="B275">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C275">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D275">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>274</v>
       </c>
     </row>
@@ -4626,13 +5135,13 @@
         <v>7</v>
       </c>
       <c r="B276">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C276">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D276">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>275</v>
       </c>
     </row>
@@ -4641,13 +5150,13 @@
         <v>6</v>
       </c>
       <c r="B277">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C277">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D277">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>276</v>
       </c>
     </row>
@@ -4656,13 +5165,13 @@
         <v>6</v>
       </c>
       <c r="B278">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C278">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D278">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>277</v>
       </c>
     </row>
@@ -4671,13 +5180,13 @@
         <v>6</v>
       </c>
       <c r="B279">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C279">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D279">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>278</v>
       </c>
     </row>
@@ -4686,13 +5195,13 @@
         <v>6</v>
       </c>
       <c r="B280">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C280">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D280">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>279</v>
       </c>
     </row>
@@ -4701,13 +5210,13 @@
         <v>6</v>
       </c>
       <c r="B281">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C281">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D281">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>280</v>
       </c>
     </row>
@@ -4716,13 +5225,13 @@
         <v>6</v>
       </c>
       <c r="B282">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C282">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D282">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>281</v>
       </c>
     </row>
@@ -4731,13 +5240,13 @@
         <v>6</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C283">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D283">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>282</v>
       </c>
     </row>
@@ -4746,13 +5255,13 @@
         <v>6</v>
       </c>
       <c r="B284">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C284">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D284">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>283</v>
       </c>
     </row>
@@ -4761,13 +5270,13 @@
         <v>6</v>
       </c>
       <c r="B285">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C285">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D285">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>284</v>
       </c>
     </row>
@@ -4776,13 +5285,13 @@
         <v>6</v>
       </c>
       <c r="B286">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C286">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D286">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>285</v>
       </c>
     </row>
@@ -4791,13 +5300,13 @@
         <v>6</v>
       </c>
       <c r="B287">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C287">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D287">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>286</v>
       </c>
     </row>
@@ -4806,13 +5315,13 @@
         <v>6</v>
       </c>
       <c r="B288">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D288">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>287</v>
       </c>
     </row>
@@ -4821,13 +5330,13 @@
         <v>6</v>
       </c>
       <c r="B289">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C289">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D289">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
     </row>
@@ -4836,13 +5345,13 @@
         <v>6</v>
       </c>
       <c r="B290">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C290">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D290">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>289</v>
       </c>
     </row>
@@ -4851,13 +5360,13 @@
         <v>6</v>
       </c>
       <c r="B291">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C291">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D291">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>290</v>
       </c>
     </row>
@@ -4866,13 +5375,13 @@
         <v>6</v>
       </c>
       <c r="B292">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C292">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D292">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>291</v>
       </c>
     </row>
@@ -4881,13 +5390,13 @@
         <v>6</v>
       </c>
       <c r="B293">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C293">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D293">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>292</v>
       </c>
     </row>
@@ -4896,13 +5405,13 @@
         <v>6</v>
       </c>
       <c r="B294">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C294">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D294">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>293</v>
       </c>
     </row>
@@ -4911,13 +5420,13 @@
         <v>6</v>
       </c>
       <c r="B295">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C295">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D295">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>294</v>
       </c>
     </row>
@@ -4926,13 +5435,13 @@
         <v>6</v>
       </c>
       <c r="B296">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C296">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D296">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>295</v>
       </c>
     </row>
@@ -4941,13 +5450,13 @@
         <v>5</v>
       </c>
       <c r="B297">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C297">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D297">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>296</v>
       </c>
     </row>
@@ -4956,13 +5465,13 @@
         <v>5</v>
       </c>
       <c r="B298">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C298">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D298">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>297</v>
       </c>
     </row>
@@ -4971,13 +5480,13 @@
         <v>5</v>
       </c>
       <c r="B299">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C299">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D299">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>298</v>
       </c>
     </row>
@@ -4986,13 +5495,13 @@
         <v>5</v>
       </c>
       <c r="B300">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C300">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D300">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>299</v>
       </c>
     </row>
@@ -5001,13 +5510,13 @@
         <v>5</v>
       </c>
       <c r="B301">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C301">
         <v>12</v>
       </c>
       <c r="D301">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
     </row>
@@ -5016,13 +5525,13 @@
         <v>5</v>
       </c>
       <c r="B302">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C302">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D302">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>301</v>
       </c>
     </row>
@@ -5031,13 +5540,13 @@
         <v>5</v>
       </c>
       <c r="B303">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C303">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D303">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>302</v>
       </c>
     </row>
@@ -5046,13 +5555,13 @@
         <v>5</v>
       </c>
       <c r="B304">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C304">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D304">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>303</v>
       </c>
     </row>
@@ -5061,13 +5570,13 @@
         <v>5</v>
       </c>
       <c r="B305">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C305">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D305">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
     </row>
@@ -5076,13 +5585,13 @@
         <v>5</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C306">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D306">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>305</v>
       </c>
     </row>
@@ -5091,13 +5600,13 @@
         <v>5</v>
       </c>
       <c r="B307">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C307">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D307">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>306</v>
       </c>
     </row>
@@ -5106,13 +5615,13 @@
         <v>5</v>
       </c>
       <c r="B308">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C308">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D308">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>307</v>
       </c>
     </row>
@@ -5124,10 +5633,10 @@
         <v>8</v>
       </c>
       <c r="C309">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D309">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>308</v>
       </c>
     </row>
@@ -5142,7 +5651,7 @@
         <v>10</v>
       </c>
       <c r="D310">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>309</v>
       </c>
     </row>
@@ -5154,10 +5663,10 @@
         <v>8</v>
       </c>
       <c r="C311">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D311">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>310</v>
       </c>
     </row>
@@ -5166,13 +5675,13 @@
         <v>5</v>
       </c>
       <c r="B312">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C312">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D312">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>311</v>
       </c>
     </row>
@@ -5181,13 +5690,13 @@
         <v>5</v>
       </c>
       <c r="B313">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C313">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D313">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>312</v>
       </c>
     </row>
@@ -5196,13 +5705,13 @@
         <v>5</v>
       </c>
       <c r="B314">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C314">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D314">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>313</v>
       </c>
     </row>
@@ -5211,13 +5720,13 @@
         <v>5</v>
       </c>
       <c r="B315">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C315">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D315">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>314</v>
       </c>
     </row>
@@ -5226,13 +5735,13 @@
         <v>5</v>
       </c>
       <c r="B316">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C316">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D316">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
     </row>
@@ -5241,13 +5750,13 @@
         <v>5</v>
       </c>
       <c r="B317">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C317">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D317">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>316</v>
       </c>
     </row>
@@ -5256,13 +5765,13 @@
         <v>5</v>
       </c>
       <c r="B318">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C318">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D318">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>317</v>
       </c>
     </row>
@@ -5271,13 +5780,13 @@
         <v>5</v>
       </c>
       <c r="B319">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C319">
         <v>12</v>
       </c>
       <c r="D319">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>318</v>
       </c>
     </row>
@@ -5286,13 +5795,13 @@
         <v>5</v>
       </c>
       <c r="B320">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C320">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D320">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>319</v>
       </c>
     </row>
@@ -5301,13 +5810,13 @@
         <v>5</v>
       </c>
       <c r="B321">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C321">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D321">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>320</v>
       </c>
     </row>
@@ -5316,13 +5825,13 @@
         <v>5</v>
       </c>
       <c r="B322">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C322">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D322">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>321</v>
       </c>
     </row>
@@ -5331,13 +5840,13 @@
         <v>5</v>
       </c>
       <c r="B323">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C323">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D323">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>322</v>
       </c>
     </row>
@@ -5346,13 +5855,13 @@
         <v>4</v>
       </c>
       <c r="B324">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C324">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D324">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D324:D387" si="15">D323+1</f>
         <v>323</v>
       </c>
     </row>
@@ -5361,13 +5870,13 @@
         <v>4</v>
       </c>
       <c r="B325">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C325">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D325">
-        <f t="shared" ref="D325:D388" si="19">D324+1</f>
+        <f t="shared" si="15"/>
         <v>324</v>
       </c>
     </row>
@@ -5376,13 +5885,13 @@
         <v>4</v>
       </c>
       <c r="B326">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C326">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D326">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>325</v>
       </c>
     </row>
@@ -5391,13 +5900,13 @@
         <v>4</v>
       </c>
       <c r="B327">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C327">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D327">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>326</v>
       </c>
     </row>
@@ -5406,13 +5915,13 @@
         <v>4</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C328">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D328">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>327</v>
       </c>
     </row>
@@ -5421,13 +5930,13 @@
         <v>4</v>
       </c>
       <c r="B329">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C329">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D329">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>328</v>
       </c>
     </row>
@@ -5436,13 +5945,13 @@
         <v>4</v>
       </c>
       <c r="B330">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C330">
         <v>13</v>
       </c>
       <c r="D330">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>329</v>
       </c>
     </row>
@@ -5451,13 +5960,13 @@
         <v>4</v>
       </c>
       <c r="B331">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C331">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D331">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>330</v>
       </c>
     </row>
@@ -5466,13 +5975,13 @@
         <v>4</v>
       </c>
       <c r="B332">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C332">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D332">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>331</v>
       </c>
     </row>
@@ -5481,13 +5990,13 @@
         <v>4</v>
       </c>
       <c r="B333">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C333">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D333">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>332</v>
       </c>
     </row>
@@ -5496,13 +6005,13 @@
         <v>4</v>
       </c>
       <c r="B334">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C334">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D334">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>333</v>
       </c>
     </row>
@@ -5511,13 +6020,13 @@
         <v>4</v>
       </c>
       <c r="B335">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C335">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D335">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>334</v>
       </c>
     </row>
@@ -5526,13 +6035,13 @@
         <v>4</v>
       </c>
       <c r="B336">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D336">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>335</v>
       </c>
     </row>
@@ -5541,13 +6050,13 @@
         <v>4</v>
       </c>
       <c r="B337">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C337">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D337">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>336</v>
       </c>
     </row>
@@ -5556,13 +6065,13 @@
         <v>4</v>
       </c>
       <c r="B338">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C338">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D338">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>337</v>
       </c>
     </row>
@@ -5574,10 +6083,10 @@
         <v>7</v>
       </c>
       <c r="C339">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D339">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>338</v>
       </c>
     </row>
@@ -5589,10 +6098,10 @@
         <v>7</v>
       </c>
       <c r="C340">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D340">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>339</v>
       </c>
     </row>
@@ -5607,7 +6116,7 @@
         <v>11</v>
       </c>
       <c r="D341">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>340</v>
       </c>
     </row>
@@ -5619,10 +6128,10 @@
         <v>7</v>
       </c>
       <c r="C342">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D342">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>341</v>
       </c>
     </row>
@@ -5634,10 +6143,10 @@
         <v>7</v>
       </c>
       <c r="C343">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D343">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>342</v>
       </c>
     </row>
@@ -5646,13 +6155,13 @@
         <v>4</v>
       </c>
       <c r="B344">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C344">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D344">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>343</v>
       </c>
     </row>
@@ -5661,13 +6170,13 @@
         <v>4</v>
       </c>
       <c r="B345">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C345">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D345">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>344</v>
       </c>
     </row>
@@ -5676,13 +6185,13 @@
         <v>4</v>
       </c>
       <c r="B346">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C346">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D346">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>345</v>
       </c>
     </row>
@@ -5691,13 +6200,13 @@
         <v>4</v>
       </c>
       <c r="B347">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C347">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D347">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>346</v>
       </c>
     </row>
@@ -5706,13 +6215,13 @@
         <v>4</v>
       </c>
       <c r="B348">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C348">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D348">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>347</v>
       </c>
     </row>
@@ -5721,13 +6230,13 @@
         <v>4</v>
       </c>
       <c r="B349">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C349">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D349">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>348</v>
       </c>
     </row>
@@ -5736,13 +6245,13 @@
         <v>4</v>
       </c>
       <c r="B350">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C350">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D350">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>349</v>
       </c>
     </row>
@@ -5751,13 +6260,13 @@
         <v>4</v>
       </c>
       <c r="B351">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C351">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D351">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>350</v>
       </c>
     </row>
@@ -5766,13 +6275,13 @@
         <v>4</v>
       </c>
       <c r="B352">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C352">
         <v>13</v>
       </c>
       <c r="D352">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>351</v>
       </c>
     </row>
@@ -5781,13 +6290,13 @@
         <v>4</v>
       </c>
       <c r="B353">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C353">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D353">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>352</v>
       </c>
     </row>
@@ -5796,13 +6305,13 @@
         <v>4</v>
       </c>
       <c r="B354">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C354">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D354">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>353</v>
       </c>
     </row>
@@ -5811,13 +6320,13 @@
         <v>4</v>
       </c>
       <c r="B355">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C355">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D355">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>354</v>
       </c>
     </row>
@@ -5826,13 +6335,13 @@
         <v>4</v>
       </c>
       <c r="B356">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C356">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D356">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>355</v>
       </c>
     </row>
@@ -5841,13 +6350,13 @@
         <v>4</v>
       </c>
       <c r="B357">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C357">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D357">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>356</v>
       </c>
     </row>
@@ -5856,13 +6365,13 @@
         <v>4</v>
       </c>
       <c r="B358">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C358">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D358">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>357</v>
       </c>
     </row>
@@ -5871,13 +6380,13 @@
         <v>3</v>
       </c>
       <c r="B359">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C359">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D359">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>358</v>
       </c>
     </row>
@@ -5886,13 +6395,13 @@
         <v>3</v>
       </c>
       <c r="B360">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C360">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D360">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>359</v>
       </c>
     </row>
@@ -5901,13 +6410,13 @@
         <v>3</v>
       </c>
       <c r="B361">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C361">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D361">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>360</v>
       </c>
     </row>
@@ -5916,13 +6425,13 @@
         <v>3</v>
       </c>
       <c r="B362">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C362">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D362">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>361</v>
       </c>
     </row>
@@ -5931,13 +6440,13 @@
         <v>3</v>
       </c>
       <c r="B363">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C363">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D363">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>362</v>
       </c>
     </row>
@@ -5946,13 +6455,13 @@
         <v>3</v>
       </c>
       <c r="B364">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C364">
         <v>11</v>
       </c>
       <c r="D364">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>363</v>
       </c>
     </row>
@@ -5961,13 +6470,13 @@
         <v>3</v>
       </c>
       <c r="B365">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C365">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D365">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
     </row>
@@ -5976,13 +6485,13 @@
         <v>3</v>
       </c>
       <c r="B366">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C366">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D366">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>365</v>
       </c>
     </row>
@@ -5991,13 +6500,13 @@
         <v>3</v>
       </c>
       <c r="B367">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C367">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D367">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>366</v>
       </c>
     </row>
@@ -6006,13 +6515,13 @@
         <v>3</v>
       </c>
       <c r="B368">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C368">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D368">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>367</v>
       </c>
     </row>
@@ -6021,13 +6530,13 @@
         <v>3</v>
       </c>
       <c r="B369">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C369">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D369">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
     </row>
@@ -6036,13 +6545,13 @@
         <v>3</v>
       </c>
       <c r="B370">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C370">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D370">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>369</v>
       </c>
     </row>
@@ -6051,13 +6560,13 @@
         <v>3</v>
       </c>
       <c r="B371">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C371">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D371">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>370</v>
       </c>
     </row>
@@ -6066,13 +6575,13 @@
         <v>3</v>
       </c>
       <c r="B372">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C372">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>371</v>
       </c>
     </row>
@@ -6081,13 +6590,13 @@
         <v>3</v>
       </c>
       <c r="B373">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C373">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D373">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>372</v>
       </c>
     </row>
@@ -6096,13 +6605,13 @@
         <v>3</v>
       </c>
       <c r="B374">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C374">
         <v>13</v>
       </c>
       <c r="D374">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>373</v>
       </c>
     </row>
@@ -6111,13 +6620,13 @@
         <v>3</v>
       </c>
       <c r="B375">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C375">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D375">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>374</v>
       </c>
     </row>
@@ -6126,13 +6635,13 @@
         <v>3</v>
       </c>
       <c r="B376">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C376">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D376">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>375</v>
       </c>
     </row>
@@ -6141,13 +6650,13 @@
         <v>3</v>
       </c>
       <c r="B377">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C377">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D377">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>376</v>
       </c>
     </row>
@@ -6156,13 +6665,13 @@
         <v>3</v>
       </c>
       <c r="B378">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C378">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D378">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>377</v>
       </c>
     </row>
@@ -6171,13 +6680,13 @@
         <v>3</v>
       </c>
       <c r="B379">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C379">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D379">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
     </row>
@@ -6189,10 +6698,10 @@
         <v>6</v>
       </c>
       <c r="C380">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D380">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>379</v>
       </c>
     </row>
@@ -6204,10 +6713,10 @@
         <v>6</v>
       </c>
       <c r="C381">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D381">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>380</v>
       </c>
     </row>
@@ -6216,13 +6725,13 @@
         <v>3</v>
       </c>
       <c r="B382">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C382">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D382">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>381</v>
       </c>
     </row>
@@ -6231,13 +6740,13 @@
         <v>3</v>
       </c>
       <c r="B383">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C383">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D383">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>382</v>
       </c>
     </row>
@@ -6246,13 +6755,13 @@
         <v>3</v>
       </c>
       <c r="B384">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C384">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D384">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>383</v>
       </c>
     </row>
@@ -6261,13 +6770,13 @@
         <v>3</v>
       </c>
       <c r="B385">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C385">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D385">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>384</v>
       </c>
     </row>
@@ -6276,13 +6785,13 @@
         <v>3</v>
       </c>
       <c r="B386">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C386">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D386">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>385</v>
       </c>
     </row>
@@ -6291,13 +6800,13 @@
         <v>3</v>
       </c>
       <c r="B387">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C387">
         <v>13</v>
       </c>
       <c r="D387">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>386</v>
       </c>
     </row>
@@ -6306,13 +6815,13 @@
         <v>3</v>
       </c>
       <c r="B388">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C388">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D388">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D388:D451" si="16">D387+1</f>
         <v>387</v>
       </c>
     </row>
@@ -6321,13 +6830,13 @@
         <v>3</v>
       </c>
       <c r="B389">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C389">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D389">
-        <f t="shared" ref="D389:D452" si="20">D388+1</f>
+        <f t="shared" si="16"/>
         <v>388</v>
       </c>
     </row>
@@ -6336,13 +6845,13 @@
         <v>3</v>
       </c>
       <c r="B390">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C390">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D390">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>389</v>
       </c>
     </row>
@@ -6351,13 +6860,13 @@
         <v>3</v>
       </c>
       <c r="B391">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C391">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D391">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>390</v>
       </c>
     </row>
@@ -6366,13 +6875,13 @@
         <v>3</v>
       </c>
       <c r="B392">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C392">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D392">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>391</v>
       </c>
     </row>
@@ -6381,13 +6890,13 @@
         <v>3</v>
       </c>
       <c r="B393">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C393">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D393">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>392</v>
       </c>
     </row>
@@ -6396,13 +6905,13 @@
         <v>3</v>
       </c>
       <c r="B394">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C394">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>393</v>
       </c>
     </row>
@@ -6411,13 +6920,13 @@
         <v>3</v>
       </c>
       <c r="B395">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C395">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>394</v>
       </c>
     </row>
@@ -6426,13 +6935,13 @@
         <v>3</v>
       </c>
       <c r="B396">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C396">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>395</v>
       </c>
     </row>
@@ -6441,13 +6950,13 @@
         <v>3</v>
       </c>
       <c r="B397">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C397">
         <v>11</v>
       </c>
       <c r="D397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>396</v>
       </c>
     </row>
@@ -6456,13 +6965,13 @@
         <v>3</v>
       </c>
       <c r="B398">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C398">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>397</v>
       </c>
     </row>
@@ -6471,13 +6980,13 @@
         <v>3</v>
       </c>
       <c r="B399">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C399">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>398</v>
       </c>
     </row>
@@ -6486,13 +6995,13 @@
         <v>3</v>
       </c>
       <c r="B400">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C400">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>399</v>
       </c>
     </row>
@@ -6501,13 +7010,13 @@
         <v>3</v>
       </c>
       <c r="B401">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C401">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>400</v>
       </c>
     </row>
@@ -6516,13 +7025,13 @@
         <v>3</v>
       </c>
       <c r="B402">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C402">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>401</v>
       </c>
     </row>
@@ -6531,13 +7040,13 @@
         <v>2</v>
       </c>
       <c r="B403">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C403">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>402</v>
       </c>
     </row>
@@ -6546,13 +7055,13 @@
         <v>2</v>
       </c>
       <c r="B404">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C404">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>403</v>
       </c>
     </row>
@@ -6561,13 +7070,13 @@
         <v>2</v>
       </c>
       <c r="B405">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C405">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>404</v>
       </c>
     </row>
@@ -6576,13 +7085,13 @@
         <v>2</v>
       </c>
       <c r="B406">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C406">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>405</v>
       </c>
     </row>
@@ -6591,13 +7100,13 @@
         <v>2</v>
       </c>
       <c r="B407">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C407">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>406</v>
       </c>
     </row>
@@ -6606,13 +7115,13 @@
         <v>2</v>
       </c>
       <c r="B408">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C408">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>407</v>
       </c>
     </row>
@@ -6621,13 +7130,13 @@
         <v>2</v>
       </c>
       <c r="B409">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C409">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>408</v>
       </c>
     </row>
@@ -6636,13 +7145,13 @@
         <v>2</v>
       </c>
       <c r="B410">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C410">
         <v>12</v>
       </c>
       <c r="D410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>409</v>
       </c>
     </row>
@@ -6651,13 +7160,13 @@
         <v>2</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C411">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>410</v>
       </c>
     </row>
@@ -6666,13 +7175,13 @@
         <v>2</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C412">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>411</v>
       </c>
     </row>
@@ -6681,13 +7190,13 @@
         <v>2</v>
       </c>
       <c r="B413">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C413">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>412</v>
       </c>
     </row>
@@ -6696,13 +7205,13 @@
         <v>2</v>
       </c>
       <c r="B414">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C414">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>413</v>
       </c>
     </row>
@@ -6711,13 +7220,13 @@
         <v>2</v>
       </c>
       <c r="B415">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C415">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>414</v>
       </c>
     </row>
@@ -6726,13 +7235,13 @@
         <v>2</v>
       </c>
       <c r="B416">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C416">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>415</v>
       </c>
     </row>
@@ -6741,13 +7250,13 @@
         <v>2</v>
       </c>
       <c r="B417">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C417">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>416</v>
       </c>
     </row>
@@ -6756,13 +7265,13 @@
         <v>2</v>
       </c>
       <c r="B418">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C418">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>417</v>
       </c>
     </row>
@@ -6771,13 +7280,13 @@
         <v>2</v>
       </c>
       <c r="B419">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C419">
         <v>12</v>
       </c>
       <c r="D419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>418</v>
       </c>
     </row>
@@ -6786,13 +7295,13 @@
         <v>2</v>
       </c>
       <c r="B420">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C420">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>419</v>
       </c>
     </row>
@@ -6801,13 +7310,13 @@
         <v>2</v>
       </c>
       <c r="B421">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C421">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>420</v>
       </c>
     </row>
@@ -6816,13 +7325,13 @@
         <v>2</v>
       </c>
       <c r="B422">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C422">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>421</v>
       </c>
     </row>
@@ -6831,13 +7340,13 @@
         <v>2</v>
       </c>
       <c r="B423">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C423">
         <v>8</v>
       </c>
       <c r="D423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>422</v>
       </c>
     </row>
@@ -6846,13 +7355,13 @@
         <v>2</v>
       </c>
       <c r="B424">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C424">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>423</v>
       </c>
     </row>
@@ -6861,13 +7370,13 @@
         <v>2</v>
       </c>
       <c r="B425">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C425">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>424</v>
       </c>
     </row>
@@ -6876,13 +7385,13 @@
         <v>2</v>
       </c>
       <c r="B426">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C426">
         <v>11</v>
       </c>
       <c r="D426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>425</v>
       </c>
     </row>
@@ -6891,13 +7400,13 @@
         <v>2</v>
       </c>
       <c r="B427">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C427">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>426</v>
       </c>
     </row>
@@ -6906,13 +7415,13 @@
         <v>2</v>
       </c>
       <c r="B428">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C428">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>427</v>
       </c>
     </row>
@@ -6924,10 +7433,10 @@
         <v>6</v>
       </c>
       <c r="C429">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>428</v>
       </c>
     </row>
@@ -6939,10 +7448,10 @@
         <v>6</v>
       </c>
       <c r="C430">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>429</v>
       </c>
     </row>
@@ -6951,13 +7460,13 @@
         <v>2</v>
       </c>
       <c r="B431">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C431">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>430</v>
       </c>
     </row>
@@ -6966,13 +7475,13 @@
         <v>2</v>
       </c>
       <c r="B432">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C432">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>431</v>
       </c>
     </row>
@@ -6981,13 +7490,13 @@
         <v>2</v>
       </c>
       <c r="B433">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C433">
         <v>11</v>
       </c>
       <c r="D433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>432</v>
       </c>
     </row>
@@ -6996,13 +7505,13 @@
         <v>2</v>
       </c>
       <c r="B434">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C434">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>433</v>
       </c>
     </row>
@@ -7011,13 +7520,13 @@
         <v>2</v>
       </c>
       <c r="B435">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C435">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>434</v>
       </c>
     </row>
@@ -7026,13 +7535,13 @@
         <v>2</v>
       </c>
       <c r="B436">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C436">
         <v>8</v>
       </c>
       <c r="D436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>435</v>
       </c>
     </row>
@@ -7041,13 +7550,13 @@
         <v>2</v>
       </c>
       <c r="B437">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C437">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>436</v>
       </c>
     </row>
@@ -7056,13 +7565,13 @@
         <v>2</v>
       </c>
       <c r="B438">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C438">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>437</v>
       </c>
     </row>
@@ -7071,13 +7580,13 @@
         <v>2</v>
       </c>
       <c r="B439">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C439">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>438</v>
       </c>
     </row>
@@ -7086,13 +7595,13 @@
         <v>2</v>
       </c>
       <c r="B440">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C440">
         <v>12</v>
       </c>
       <c r="D440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>439</v>
       </c>
     </row>
@@ -7101,13 +7610,13 @@
         <v>2</v>
       </c>
       <c r="B441">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C441">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>440</v>
       </c>
     </row>
@@ -7116,13 +7625,13 @@
         <v>2</v>
       </c>
       <c r="B442">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C442">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>441</v>
       </c>
     </row>
@@ -7131,13 +7640,13 @@
         <v>2</v>
       </c>
       <c r="B443">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C443">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>442</v>
       </c>
     </row>
@@ -7146,13 +7655,13 @@
         <v>2</v>
       </c>
       <c r="B444">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C444">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>443</v>
       </c>
     </row>
@@ -7161,13 +7670,13 @@
         <v>2</v>
       </c>
       <c r="B445">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C445">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>444</v>
       </c>
     </row>
@@ -7176,13 +7685,13 @@
         <v>2</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C446">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>445</v>
       </c>
     </row>
@@ -7191,13 +7700,13 @@
         <v>2</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C447">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>446</v>
       </c>
     </row>
@@ -7206,13 +7715,13 @@
         <v>2</v>
       </c>
       <c r="B448">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C448">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>447</v>
       </c>
     </row>
@@ -7221,13 +7730,13 @@
         <v>2</v>
       </c>
       <c r="B449">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C449">
         <v>12</v>
       </c>
       <c r="D449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>448</v>
       </c>
     </row>
@@ -7236,13 +7745,13 @@
         <v>2</v>
       </c>
       <c r="B450">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C450">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>449</v>
       </c>
     </row>
@@ -7251,13 +7760,13 @@
         <v>2</v>
       </c>
       <c r="B451">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C451">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D451">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>450</v>
       </c>
     </row>
@@ -7266,13 +7775,13 @@
         <v>2</v>
       </c>
       <c r="B452">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C452">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D452">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="D452:D456" si="17">D451+1</f>
         <v>451</v>
       </c>
     </row>
@@ -7281,13 +7790,13 @@
         <v>2</v>
       </c>
       <c r="B453">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C453">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D453">
-        <f t="shared" ref="D453:D456" si="21">D452+1</f>
+        <f t="shared" si="17"/>
         <v>452</v>
       </c>
     </row>
@@ -7296,13 +7805,13 @@
         <v>2</v>
       </c>
       <c r="B454">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C454">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D454">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>453</v>
       </c>
     </row>
@@ -7311,13 +7820,13 @@
         <v>2</v>
       </c>
       <c r="B455">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C455">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D455">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>454</v>
       </c>
     </row>
@@ -7326,17 +7835,20 @@
         <v>2</v>
       </c>
       <c r="B456">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C456">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D456">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>455</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D275">
+    <sortCondition descending="1" ref="D2:D275"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>